--- a/aca-encoder.xlsx
+++ b/aca-encoder.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Ambiente de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D009ED-78E1-453D-B777-25970EFCE5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA15C42E-05E3-4A25-9219-2FE0FA986610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2FB40D02-A653-4BD5-AF2F-527ADCAB9BDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{2FB40D02-A653-4BD5-AF2F-527ADCAB9BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="35">
   <si>
     <t>a0</t>
   </si>
@@ -119,12 +120,33 @@
   <si>
     <t>atraso</t>
   </si>
+  <si>
+    <t>41 xors</t>
+  </si>
+  <si>
+    <t>42xors</t>
+  </si>
+  <si>
+    <t>4 atraso?</t>
+  </si>
+  <si>
+    <t>5 atraso?</t>
+  </si>
+  <si>
+    <t>42 xors</t>
+  </si>
+  <si>
+    <t>41xors</t>
+  </si>
+  <si>
+    <t>40 xors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +154,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +182,164 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF703D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,11 +362,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,12 +392,111 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF703D4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,19 +805,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E312D-3508-4E0A-91D2-0D1A7A8C7DB9}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -572,11 +868,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2"/>
@@ -589,51 +885,51 @@
         <v>24</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -648,27 +944,27 @@
         <v>24</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2"/>
@@ -680,34 +976,34 @@
       <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2"/>
@@ -732,15 +1028,15 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -756,18 +1052,18 @@
       <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -782,19 +1078,19 @@
       <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="2"/>
@@ -806,7 +1102,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -819,19 +1115,19 @@
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -845,7 +1141,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -859,19 +1155,19 @@
         <v>24</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -879,12 +1175,12 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -892,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -900,9 +1196,3206 @@
         <v>11</v>
       </c>
       <c r="G13" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="35"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="37">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="38">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="39">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="T21" s="40">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="T22" s="41">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="T23" s="42">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="T24" s="43">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="T25">
+        <f>SUM(T17,T18,T19,T20,T21,T22,T23,T24,)</f>
+        <v>17</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="16"/>
+      <c r="U26">
+        <f>SUM(U18,U20,U19,U21,U22,U23,U24,U25,)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S41" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S53" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S65" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O79" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R79" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438559DE-ACAA-4E8B-9235-5D471D740136}">
+  <dimension ref="B3:S34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G12" s="35"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>